--- a/src/zh/openpyxl/styles/named_styles/Style.xlsx
+++ b/src/zh/openpyxl/styles/named_styles/Style.xlsx
@@ -24,7 +24,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +50,14 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color rgb="FF2CEE0E"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -68,7 +76,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -92,8 +100,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -102,15 +113,80 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="MyGood" xfId="20"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF2CEE0E"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -294,7 +370,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1048552"/>
+  <dimension ref="A1:A1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -305,6 +381,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.27"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
+        <v>1234567</v>
+      </c>
+    </row>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
